--- a/output/Transects_WideData.xlsx
+++ b/output/Transects_WideData.xlsx
@@ -360,14 +360,14 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Transect_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Lake</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Transect_ID</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
@@ -450,47 +450,47 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Trunk</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Silt</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Sand</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Rock</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Block</t>
-        </is>
-      </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>Metric_block</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
           <t>Macrophyte</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Depth</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Trunk</t>
+          <t>Mean_depth</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Temp</t>
+          <t>Temperature</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Cond</t>
+          <t>Conductivity</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Turb</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
@@ -527,12 +527,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>ACHI1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Achigan</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ACHI1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -594,25 +594,25 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>5</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>74.8</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>20.2</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>3.8</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>118.5</v>
-      </c>
-      <c r="Y2">
-        <v>15</v>
       </c>
       <c r="Z2">
         <v>25.2</v>
@@ -642,12 +642,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>ACHI2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Achigan</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ACHI2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>83.5</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>11</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>1.4</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>79</v>
-      </c>
-      <c r="Y3">
-        <v>13</v>
       </c>
       <c r="Z3">
         <v>24.3</v>
@@ -757,12 +757,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>ACHI3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Achigan</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ACHI3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -812,37 +812,37 @@
         <v>0</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
+        <v>26</v>
+      </c>
+      <c r="T4">
         <v>28.7</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>20.8</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>49.5</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>6.9</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>115</v>
-      </c>
-      <c r="Y4">
-        <v>26</v>
       </c>
       <c r="Z4">
         <v>24.5</v>
@@ -872,12 +872,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>ACHI4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Achigan</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ACHI4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -927,37 +927,37 @@
         <v>0</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>67</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>33</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.2</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>147</v>
-      </c>
-      <c r="Y5">
-        <v>9</v>
       </c>
       <c r="Z5">
         <v>24.5</v>
@@ -987,12 +987,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>ACHI5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Achigan</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ACHI5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>9</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>43.8</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>45.6</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1.6</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>36.7</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>37.5</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
       </c>
       <c r="Z6">
         <v>23.6</v>
@@ -1102,12 +1102,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>ACHI6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Achigan</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ACHI6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1157,37 +1157,37 @@
         <v>0</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>11.5</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>72.8</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>15.7</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>2.2</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>66</v>
-      </c>
-      <c r="Y7">
-        <v>12</v>
       </c>
       <c r="Z7">
         <v>24.3</v>
@@ -1217,12 +1217,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>BEAV1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Beaver</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>BEAV1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1281,12 +1281,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>BEAV2</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Beaver</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BEAV2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1345,12 +1345,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>COEU1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Coeur</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>COEU1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1400,37 +1400,37 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>53</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
+        <v>80</v>
+      </c>
+      <c r="T10">
         <v>43</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>27.5</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>29.5</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2.3</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>187.5</v>
-      </c>
-      <c r="Y10">
-        <v>80</v>
       </c>
       <c r="Z10">
         <v>23.6</v>
@@ -1460,12 +1460,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>COEU2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Coeur</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>COEU2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1512,40 +1512,40 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>66</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
+        <v>16</v>
+      </c>
+      <c r="T11">
         <v>36.5</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>29.8</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>33.7</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>22</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>62.5</v>
-      </c>
-      <c r="Y11">
-        <v>16</v>
       </c>
       <c r="Z11">
         <v>23.3</v>
@@ -1575,12 +1575,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>COEU3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Coeur</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>COEU3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1630,37 +1630,37 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>42</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
+        <v>9</v>
+      </c>
+      <c r="T12">
         <v>33.9</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>20.5</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>45.6</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>9</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>80</v>
-      </c>
-      <c r="Y12">
-        <v>9</v>
       </c>
       <c r="Z12">
         <v>23</v>
@@ -1690,12 +1690,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>COEU4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>Coeur</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>COEU4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1745,37 +1745,37 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>38</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>79</v>
+      </c>
+      <c r="T13">
         <v>57</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>15.9</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>27.1</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>10.6</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>108</v>
-      </c>
-      <c r="Y13">
-        <v>79</v>
       </c>
       <c r="Z13">
         <v>22.8</v>
@@ -1805,12 +1805,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>CORN1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Cornu</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CORN1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1860,37 +1860,37 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>55</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
+        <v>380</v>
+      </c>
+      <c r="T14">
         <v>62</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
         <v>1</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>37</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>370</v>
-      </c>
-      <c r="Y14">
-        <v>380</v>
       </c>
       <c r="Z14">
         <v>22.6</v>
@@ -1920,12 +1920,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>CORN2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Cornu</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CORN2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1975,23 +1975,23 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>272</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
+        <v>45</v>
+      </c>
+      <c r="T15">
         <v>100</v>
       </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
       <c r="U15">
         <v>0</v>
       </c>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>25</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>39.5</v>
-      </c>
-      <c r="Y15">
-        <v>45</v>
       </c>
       <c r="Z15">
         <v>22.5</v>
@@ -2035,12 +2035,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>CORN3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Cornu</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CORN3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2087,40 +2087,40 @@
         <v>371</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>141</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
         <v>97.40000000000001</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>2.6</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>75.5</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>44.5</v>
-      </c>
-      <c r="Y16">
-        <v>11</v>
       </c>
       <c r="Z16">
         <v>22.6</v>
@@ -2150,12 +2150,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>CORN4</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Cornu</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CORN4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>57</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2220,22 +2220,22 @@
         <v>18</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>65.5</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>16.5</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>14.9</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>45</v>
-      </c>
-      <c r="Y17">
-        <v>18</v>
       </c>
       <c r="Z17">
         <v>22.6</v>
@@ -2265,12 +2265,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>CORR1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Corriveau</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CORR1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2332,25 +2332,25 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>108</v>
+      </c>
+      <c r="T18">
         <v>77.5</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
       <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>14</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>8.5</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>35</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>107</v>
-      </c>
-      <c r="Y18">
-        <v>108</v>
       </c>
       <c r="Z18">
         <v>20.3</v>
@@ -2380,12 +2380,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>CORR2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Corriveau</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CORR2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2447,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>33</v>
+      </c>
+      <c r="T19">
         <v>57.5</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>12</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>24.5</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>27.5</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>89.5</v>
-      </c>
-      <c r="Y19">
-        <v>33</v>
       </c>
       <c r="Z19">
         <v>21</v>
@@ -2495,12 +2495,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>CROC1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Croche</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CROC1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2562,11 +2562,11 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>52</v>
+      </c>
+      <c r="T20">
         <v>100</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
       <c r="U20">
         <v>0</v>
       </c>
@@ -2574,13 +2574,13 @@
         <v>0</v>
       </c>
       <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <v>39.5</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>73.5</v>
-      </c>
-      <c r="Y20">
-        <v>52</v>
       </c>
       <c r="Z20">
         <v>21.3</v>
@@ -2610,12 +2610,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>CROC4</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Croche</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CROC4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2677,25 +2677,25 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>171</v>
+      </c>
+      <c r="T21">
         <v>97.5</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
       <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>1</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>1.5</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>10.1</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>97</v>
-      </c>
-      <c r="Y21">
-        <v>171</v>
       </c>
       <c r="Z21">
         <v>21.9</v>
@@ -2725,12 +2725,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>CROC6</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Croche</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CROC6</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="S22">
+        <v>73</v>
+      </c>
+      <c r="T22">
         <v>50.5</v>
       </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
       <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>46.1</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2.9</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>3.3</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>94</v>
-      </c>
-      <c r="Y22">
-        <v>73</v>
       </c>
       <c r="Z22">
         <v>21.6</v>
@@ -2840,12 +2840,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>CROM2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Cromwell</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CROM2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2907,25 +2907,25 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>79</v>
+      </c>
+      <c r="T23">
         <v>80</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
         <v>6</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>27</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>56</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>76</v>
-      </c>
-      <c r="Y23">
-        <v>79</v>
       </c>
       <c r="Z23">
         <v>19.7</v>
@@ -2955,12 +2955,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>CROM3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Cromwell</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CROM3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3022,25 +3022,25 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>27</v>
+      </c>
+      <c r="T24">
         <v>71</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
         <v>14</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>15</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>61.5</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>84.5</v>
-      </c>
-      <c r="Y24">
-        <v>27</v>
       </c>
       <c r="Z24">
         <v>19.6</v>
@@ -3070,12 +3070,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>CROM4</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Cromwell</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CROM4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3137,25 +3137,25 @@
         <v>0</v>
       </c>
       <c r="S25">
+        <v>53</v>
+      </c>
+      <c r="T25">
         <v>89.8</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
         <v>5.8</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>4.4</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>69</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>117</v>
-      </c>
-      <c r="Y25">
-        <v>53</v>
       </c>
       <c r="Z25">
         <v>19.8</v>
@@ -3185,12 +3185,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>ECHO1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Echo</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>ECHO1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3237,40 +3237,40 @@
         <v>83</v>
       </c>
       <c r="N26">
+        <v>26</v>
+      </c>
+      <c r="O26">
         <v>2</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
       </c>
       <c r="P26">
         <v>36</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
+        <v>45</v>
+      </c>
+      <c r="T26">
         <v>87</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
         <v>5.8</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>7.2</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>53.5</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>50.5</v>
-      </c>
-      <c r="Y26">
-        <v>45</v>
       </c>
       <c r="Z26">
         <v>23.5</v>
@@ -3300,12 +3300,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>ECHO2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Echo</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ECHO2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3355,37 +3355,37 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>3</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
+        <v>27</v>
+      </c>
+      <c r="T27">
         <v>59.5</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>19</v>
-      </c>
-      <c r="U27">
-        <v>10.5</v>
       </c>
       <c r="V27">
         <v>10.5</v>
       </c>
       <c r="W27">
+        <v>10.5</v>
+      </c>
+      <c r="X27">
         <v>49</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>39.5</v>
-      </c>
-      <c r="Y27">
-        <v>27</v>
       </c>
       <c r="Z27">
         <v>25</v>
@@ -3415,12 +3415,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>ECHO3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Echo</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ECHO3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3470,37 +3470,37 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <v>3</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>13</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>85</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>2</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.1</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>41.3</v>
-      </c>
-      <c r="Y28">
-        <v>21</v>
       </c>
       <c r="Z28">
         <v>23.4</v>
@@ -3530,12 +3530,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>ECHO4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Echo</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ECHO4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3582,40 +3582,40 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>11</v>
       </c>
       <c r="Q29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
+        <v>17</v>
+      </c>
+      <c r="T29">
         <v>75</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>19.5</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>5.5</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>11.5</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>51</v>
-      </c>
-      <c r="Y29">
-        <v>17</v>
       </c>
       <c r="Z29">
         <v>23.3</v>
@@ -3645,12 +3645,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>ECHO5</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Echo</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ECHO5</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3697,40 +3697,40 @@
         <v>94</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>4</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
       </c>
       <c r="P30">
         <v>25</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
         <v>84</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
         <v>7</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>9</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>58.5</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>52</v>
-      </c>
-      <c r="Y30">
-        <v>10</v>
       </c>
       <c r="Z30">
         <v>24.6</v>
@@ -3760,12 +3760,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>FOUR1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Fournelle</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>FOUR1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3815,37 +3815,37 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>21</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
+        <v>41</v>
+      </c>
+      <c r="T31">
         <v>96.90000000000001</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
         <v>3</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.1</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>31.5</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>82</v>
-      </c>
-      <c r="Y31">
-        <v>41</v>
       </c>
       <c r="Z31">
         <v>24.9</v>
@@ -3875,12 +3875,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>FOUR2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Fournelle</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>FOUR2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3927,40 +3927,40 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
         <v>8</v>
-      </c>
-      <c r="O32">
-        <v>15</v>
       </c>
       <c r="P32">
         <v>106</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R32">
         <v>0</v>
       </c>
       <c r="S32">
+        <v>26</v>
+      </c>
+      <c r="T32">
         <v>95.40000000000001</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
         <v>1.2</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>3.2</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>9.6</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>125.5</v>
-      </c>
-      <c r="Y32">
-        <v>26</v>
       </c>
       <c r="Z32">
         <v>24.5</v>
@@ -3990,12 +3990,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>FOUR3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Fournelle</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>FOUR3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4045,23 +4045,23 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P33">
         <v>192</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
       <c r="S33">
+        <v>57</v>
+      </c>
+      <c r="T33">
         <v>100</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
       <c r="U33">
         <v>0</v>
       </c>
@@ -4069,13 +4069,13 @@
         <v>0</v>
       </c>
       <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
         <v>8.5</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>61.5</v>
-      </c>
-      <c r="Y33">
-        <v>57</v>
       </c>
       <c r="Z33">
         <v>24.6</v>
@@ -4105,12 +4105,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>MONT1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Montaubois</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MONT1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4169,12 +4169,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>MONT2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Montaubois</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MONT2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4233,12 +4233,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>MONT3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Montaubois</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MONT3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4297,12 +4297,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>MORE1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>Morency</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MORE1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4352,37 +4352,37 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37">
         <v>265</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>0</v>
       </c>
       <c r="S37">
+        <v>15</v>
+      </c>
+      <c r="T37">
         <v>88.5</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
       <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <v>3.6</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>7.8</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>8.5</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>30.5</v>
-      </c>
-      <c r="Y37">
-        <v>15</v>
       </c>
       <c r="Z37">
         <v>24.8</v>
@@ -4412,12 +4412,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>MORE2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Morency</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MORE2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4467,37 +4467,37 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>191</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
       <c r="S38">
+        <v>94</v>
+      </c>
+      <c r="T38">
         <v>42.8</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.7</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>16.5</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>41</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>5.9</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>168</v>
-      </c>
-      <c r="Y38">
-        <v>94</v>
       </c>
       <c r="Z38">
         <v>24</v>
@@ -4527,12 +4527,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>MORE3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Morency</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MORE3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4582,37 +4582,37 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>303</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>0</v>
       </c>
       <c r="S39">
+        <v>83</v>
+      </c>
+      <c r="T39">
         <v>24.5</v>
       </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
       <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
         <v>35.5</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>40.5</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>13.5</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>129</v>
-      </c>
-      <c r="Y39">
-        <v>83</v>
       </c>
       <c r="Z39">
         <v>23.2</v>
@@ -4642,12 +4642,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>MORE4</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Morency</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MORE4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4709,25 +4709,25 @@
         <v>0</v>
       </c>
       <c r="S40">
+        <v>31</v>
+      </c>
+      <c r="T40">
         <v>53</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>3</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>16.5</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>27.5</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>57.3</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>58</v>
-      </c>
-      <c r="Y40">
-        <v>31</v>
       </c>
       <c r="Z40">
         <v>22.3</v>
@@ -4757,12 +4757,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>PINR1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Pin_rouge</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>PINR1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4824,11 +4824,11 @@
         <v>0</v>
       </c>
       <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41">
         <v>100</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
       <c r="U41">
         <v>0</v>
       </c>
@@ -4836,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
         <v>61</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>32.5</v>
-      </c>
-      <c r="Y41">
-        <v>5</v>
       </c>
       <c r="Z41">
         <v>21</v>
@@ -4872,12 +4872,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>PINR2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>Pin_rouge</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>PINR2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
         <v>19</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
       </c>
       <c r="P42">
         <v>95</v>
@@ -4939,25 +4939,25 @@
         <v>0</v>
       </c>
       <c r="S42">
+        <v>37</v>
+      </c>
+      <c r="T42">
         <v>69.5</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>9</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>4.5</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>17</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>23.3</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>56.5</v>
-      </c>
-      <c r="Y42">
-        <v>37</v>
       </c>
       <c r="Z42">
         <v>20.9</v>
@@ -4987,12 +4987,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>PINR3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Pin_rouge</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>PINR3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5048,31 +5048,31 @@
         <v>31</v>
       </c>
       <c r="Q43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
       <c r="S43">
+        <v>20</v>
+      </c>
+      <c r="T43">
         <v>98.8</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>0.7</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>0.5</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
       <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
         <v>9.199999999999999</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>26.5</v>
-      </c>
-      <c r="Y43">
-        <v>20</v>
       </c>
       <c r="Z43">
         <v>20.7</v>
@@ -5102,12 +5102,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>STON1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>St-Onge</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>STON1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5166,12 +5166,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>STON2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>St-Onge</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>STON2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5230,12 +5230,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>TRAC1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Tracy</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>TRAC1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5294,12 +5294,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>TRAC2</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Tracy</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TRAC2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5358,12 +5358,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>TRIT1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>Triton</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>TRIT1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5425,25 +5425,25 @@
         <v>0</v>
       </c>
       <c r="S48">
+        <v>27</v>
+      </c>
+      <c r="T48">
         <v>98.8</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
       <c r="U48">
         <v>0</v>
       </c>
       <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
         <v>1.2</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>57.5</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>128.5</v>
-      </c>
-      <c r="Y48">
-        <v>27</v>
       </c>
       <c r="Z48">
         <v>20.9</v>
@@ -5473,12 +5473,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>TRIT2</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>Triton</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>TRIT2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5540,25 +5540,25 @@
         <v>0</v>
       </c>
       <c r="S49">
+        <v>166</v>
+      </c>
+      <c r="T49">
         <v>91.5</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
       <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
         <v>4.5</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>4</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>41</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>121</v>
-      </c>
-      <c r="Y49">
-        <v>166</v>
       </c>
       <c r="Z49">
         <v>20.9</v>

--- a/output/Transects_WideData.xlsx
+++ b/output/Transects_WideData.xlsx
@@ -812,13 +812,13 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1157,13 +1157,13 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1400,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P10">
         <v>53</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1512,16 +1512,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>66</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P12">
         <v>42</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P13">
         <v>38</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1860,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P14">
         <v>55</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1975,13 +1975,13 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P15">
         <v>272</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>371</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>141</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17">
         <v>57</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>83</v>
       </c>
       <c r="N26">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>36</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -3355,13 +3355,13 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>3</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -3470,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28">
         <v>3</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>11</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3697,16 +3697,16 @@
         <v>94</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>25</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P31">
         <v>21</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3927,16 +3927,16 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P32">
         <v>106</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -4045,13 +4045,13 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P33">
         <v>192</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -4352,13 +4352,13 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37">
         <v>265</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>0</v>
@@ -4467,13 +4467,13 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
         <v>191</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>0</v>
@@ -4582,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>303</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -4924,10 +4924,10 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O42">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>95</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>31</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43">
         <v>0</v>
